--- a/doc/外部設計/画面遷移図ver1.2.xlsx
+++ b/doc/外部設計/画面遷移図ver1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB7EF5C-9179-46E3-B061-ED42297781E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15017982-A496-44F7-A7C6-5A6C705DE916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -331,15 +328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:colOff>939800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>1035050</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -350,12 +347,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2965450" y="2343150"/>
-          <a:ext cx="847725" cy="0"/>
+          <a:off x="2901950" y="2320925"/>
+          <a:ext cx="1117600" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -853,107 +853,51 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0D2C86-C1DA-4700-B483-8F32F76A12E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F701A4-9E8B-4904-A900-D0FDFECFDB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4908550" y="2597150"/>
-          <a:ext cx="19050" cy="679450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5594350" y="1984374"/>
+          <a:ext cx="708025" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC953D3-C180-4D22-84B2-7342FD385025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4927600" y="3254376"/>
-          <a:ext cx="1974850" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3089,18 +3033,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="B11:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3128,19 +3072,19 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3105,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3173,20 +3117,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9F468-6CD2-419C-8E4A-F181F5F4B153}">
   <dimension ref="D6:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
@@ -3210,26 +3154,24 @@
   <dimension ref="D6:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D6" s="7" t="s">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
@@ -3256,9 +3198,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3221,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
